--- a/xlsx/Java_intext.xlsx
+++ b/xlsx/Java_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="994">
   <si>
     <t>Java</t>
   </si>
@@ -29,7 +29,7 @@
     <t>JavaScript</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_Java</t>
+    <t>政策_政策_维基百科_Java</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%AA%E5%93%87%E5%B2%9B</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%9E%E5%88%A5%E5%9F%BA%E7%A4%8E%E7%B7%A8%E7%A8%8B</t>
   </si>
   <si>
-    <t>類別基礎編程</t>
+    <t>类别基础编程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%93%E6%9E%84%E5%8C%96%E7%BC%96%E7%A8%8B</t>
@@ -113,15 +113,12 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%9E%E5%9E%8B%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>類型系統</t>
+    <t>类型系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%BB%E5%9E%8B%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>类型系統</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Nominal_type_system</t>
   </si>
   <si>
@@ -167,7 +164,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%AB%99</t>
   </si>
   <si>
-    <t>網站</t>
+    <t>网站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/OpenJDK</t>
@@ -281,7 +278,7 @@
     <t>https://zh.wikipedia.org/wiki/Hack_(%E7%A8%8B%E5%BC%8F%E8%AA%9E%E8%A8%80)</t>
   </si>
   <si>
-    <t>Hack (程式語言)</t>
+    <t>Hack (程式语言)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Haxe</t>
@@ -329,13 +326,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E7%A7%91%E6%9B%B8</t>
   </si>
   <si>
-    <t>維基教科書</t>
+    <t>维基教科书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%8B%E5%BC%8F%E8%A8%AD%E8%A8%88%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>程式設計語言</t>
+    <t>程式设计语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E5%B9%B3%E5%8F%B0</t>
@@ -347,13 +344,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E4%BB%B6%E5%B0%8E%E5%90%91</t>
   </si>
   <si>
-    <t>物件導向</t>
+    <t>物件导向</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E5%9E%8B%E7%A8%8B%E5%BC%8F%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>泛型程式設計</t>
+    <t>泛型程式设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E7%94%A8%E7%94%B5%E5%99%A8</t>
@@ -365,7 +362,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%8B%E5%BC%8F%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>程式語言</t>
+    <t>程式语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%A7%86%E6%9C%BA</t>
@@ -395,7 +392,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%9A%9B%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>網際網路</t>
+    <t>网际网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%87%E9%92%88_(%E4%BF%A1%E6%81%AF%E5%AD%A6)</t>
@@ -407,7 +404,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E7%85%A7</t>
   </si>
   <si>
-    <t>參照</t>
+    <t>参照</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%90%E7%AE%97%E7%AC%A6%E9%87%8D%E8%BD%BD</t>
@@ -431,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9E%83%E5%9C%BE%E5%9B%9E%E6%94%B6_(%E8%A8%88%E7%AE%97%E6%A9%9F%E7%A7%91%E5%AD%B8)</t>
   </si>
   <si>
-    <t>垃圾回收 (計算機科學)</t>
+    <t>垃圾回收 (计算机科学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%BB%E5%9E%8B%E5%AE%89%E5%85%A8</t>
@@ -443,13 +440,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%A8%E8%AD%AF%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>編譯語言</t>
+    <t>编译语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E8%AD%AF%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>直譯語言</t>
+    <t>直译语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%97%E8%8A%82%E7%A0%81</t>
@@ -485,7 +482,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E6%A5%AD%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>作業系統</t>
+    <t>作业系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Android</t>
@@ -497,7 +494,7 @@
     <t>https://zh.wikipedia.org/wiki/Sun%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>Sun電腦</t>
+    <t>Sun电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%89%B9%E9%87%8C%E5%85%8B%C2%B7%E8%AF%BA%E9%A1%BF</t>
@@ -509,7 +506,7 @@
     <t>https://zh.wikipedia.org/wiki/C%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>C語言</t>
+    <t>C语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%94%E7%94%A8%E7%A8%8B%E5%BA%8F%E6%8E%A5%E5%8F%A3</t>
@@ -527,7 +524,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%A8%E6%B4%9B%E5%B8%95%E5%85%8B_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -539,7 +536,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E6%B3%A2%E7%88%90</t>
   </si>
   <si>
-    <t>微波爐</t>
+    <t>微波炉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Sun</t>
@@ -563,13 +560,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%9F%B7%E8%A1%8C%E7%B7%92</t>
   </si>
   <si>
-    <t>多執行緒</t>
+    <t>多执行绪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%93%8D%E4%BD%9C%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>操作系統</t>
+    <t>操作系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/PDA</t>
@@ -581,31 +578,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%BE%85%E5%A5%A7%E5%A4%9A_(%E7%BE%8E%E5%9C%8B%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>帕羅奧多 (美國加州)</t>
+    <t>帕罗奥多 (美国加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3%E8%8F%AF%E7%B4%8D</t>
   </si>
   <si>
-    <t>時代華納</t>
+    <t>时代华纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>電視</t>
+    <t>电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E4%BD%8D%E8%A6%96%E8%A8%8A%E8%BD%89%E6%8F%9B%E7%9B%92</t>
   </si>
   <si>
-    <t>數位視訊轉換盒</t>
+    <t>数位视讯转换盒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E7%B7%9A%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>有線電視</t>
+    <t>有线电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SGI</t>
@@ -647,7 +644,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E6%99%AF</t>
   </si>
   <si>
-    <t>網景</t>
+    <t>网景</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%C2%B7%E5%AE%89%E5%BE%B7%E6%A3%AE</t>
@@ -731,7 +728,7 @@
     <t>https://zh.wikipedia.org/wiki/Vuze_(%E8%BB%9F%E9%AB%94)</t>
   </si>
   <si>
-    <t>Vuze (軟體)</t>
+    <t>Vuze (软体)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BitTorrent</t>
@@ -749,7 +746,7 @@
     <t>https://zh.wikipedia.org/wiki/Apache%E8%BB%9F%E4%BB%B6%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>Apache軟件基金會</t>
+    <t>Apache软件基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Apache_Ant</t>
@@ -803,7 +800,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>商業軟體</t>
+    <t>商业软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/EIOffice</t>
@@ -869,19 +866,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E5%8E%9F%E5%A7%8B%E7%A2%BC</t>
   </si>
   <si>
-    <t>開放原始碼</t>
+    <t>开放原始码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Java%E8%99%9B%E6%93%AC%E6%A9%9F</t>
   </si>
   <si>
-    <t>Java虛擬機</t>
+    <t>Java虚拟机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%A8%E8%AD%AF%E5%99%A8</t>
   </si>
   <si>
-    <t>編譯器</t>
+    <t>编译器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Java%E7%89%88%E6%9C%AC%E5%8E%86%E5%8F%B2</t>
@@ -899,9 +896,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%93%8D%E4%BD%9C%E7%B3%BB%E7%BB%9F</t>
   </si>
   <si>
-    <t>操作系统</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E5%9F%BA%E4%BA%9A</t>
   </si>
   <si>
@@ -923,7 +917,7 @@
     <t>https://zh.wikipedia.org/wiki/Java%E5%B9%B3%E8%87%BA</t>
   </si>
   <si>
-    <t>Java平臺</t>
+    <t>Java平台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Java_5.0</t>
@@ -935,9 +929,6 @@
     <t>https://zh.wikipedia.org/wiki/Java%E8%99%9A%E6%8B%9F%E6%9C%BA</t>
   </si>
   <si>
-    <t>Java虚拟机</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/.Net_Framework</t>
   </si>
   <si>
@@ -965,25 +956,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E6%85%8B%E7%B7%A8%E8%AD%AF</t>
   </si>
   <si>
-    <t>動態編譯</t>
+    <t>动态编译</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%98%E6%86%B6%E9%AB%94</t>
   </si>
   <si>
-    <t>記憶體</t>
+    <t>记忆体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%86%E7%96%8A</t>
   </si>
   <si>
-    <t>堆疊</t>
+    <t>堆叠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%98%E6%86%B6%E9%AB%94%E6%B4%A9%E6%BC%8F</t>
   </si>
   <si>
-    <t>記憶體洩漏</t>
+    <t>记忆体洩漏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/C%2B%2B%E6%89%98%E7%AE%A1%E6%89%A9%E5%B1%95</t>
@@ -995,7 +986,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E9%8D%B5%E5%AD%97</t>
   </si>
   <si>
-    <t>關鍵字</t>
+    <t>关键字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E9%87%8F</t>
@@ -1073,9 +1064,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E7%AE%97%E7%AC%A6%E9%87%8D%E8%BC%89</t>
   </si>
   <si>
-    <t>運算符重載</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Perl</t>
   </si>
   <si>
@@ -1091,7 +1079,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E5%BD%A2%E4%BD%BF%E7%94%A8%E8%80%85%E7%95%8C%E9%9D%A2</t>
   </si>
   <si>
-    <t>圖形使用者界面</t>
+    <t>图形使用者界面</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AWT</t>
@@ -1103,7 +1091,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>蘋果公司</t>
+    <t>苹果公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Mac_OS_X</t>
@@ -1145,7 +1133,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%AF%E7%A4%BA%E5%8D%A1</t>
   </si>
   <si>
-    <t>顯示卡</t>
+    <t>显示卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/GPU</t>
@@ -1157,7 +1145,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E8%99%95%E7%90%86%E5%99%A8</t>
   </si>
   <si>
-    <t>中央處理器</t>
+    <t>中央处理器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Foreach%E5%BE%AA%E7%8E%AF</t>
@@ -1199,7 +1187,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BC%83C_Sharp%E5%92%8CJava</t>
   </si>
   <si>
-    <t>比較C Sharp和Java</t>
+    <t>比较C Sharp和Java</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Java%E5%85%83%E6%95%B0%E6%8D%AE%E6%8E%A5%E5%8F%A3</t>
@@ -1223,15 +1211,9 @@
     <t>https://zh.wikipedia.org/wiki/Java%E5%B9%B3%E5%8F%B0</t>
   </si>
   <si>
-    <t>Java平台</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Java%E7%89%88%E6%9C%AC%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>Java版本歷史</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Java%E5%AD%97%E8%8A%82%E7%A0%81</t>
   </si>
   <si>
@@ -1301,7 +1283,7 @@
     <t>https://zh.wikipedia.org/wiki/Google%E7%B6%B2%E9%A0%81%E5%B7%A5%E5%85%B7%E5%8C%85</t>
   </si>
   <si>
-    <t>Google網頁工具包</t>
+    <t>Google网页工具包</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Apache_Harmony</t>
@@ -1355,7 +1337,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%87%E9%99%BD%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>昇陽電腦</t>
+    <t>昇阳电脑</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Free_Java_implementations</t>
@@ -1529,13 +1511,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%87%E9%99%BD%E8%AA%8D%E8%AD%89Java%E7%A8%8B%E5%BC%8F%E5%93%A1</t>
   </si>
   <si>
-    <t>昇陽認證Java程式員</t>
+    <t>昇阳认证Java程式员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%87%E9%99%BD%E8%AA%8D%E8%AD%89Java%E5%8A%A9%E7%90%86</t>
   </si>
   <si>
-    <t>昇陽認證Java助理</t>
+    <t>昇阳认证Java助理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SCJD</t>
@@ -1619,7 +1601,7 @@
     <t>https://zh.wikipedia.org/wiki/Swift%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>Swift語言</t>
+    <t>Swift语言</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Fire_OS</t>
@@ -1637,9 +1619,6 @@
     <t>https://zh.wikipedia.org/wiki/C%E8%AF%AD%E8%A8%80</t>
   </si>
   <si>
-    <t>C语言</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Turbo_C%2B%2B</t>
   </si>
   <si>
@@ -1775,7 +1754,7 @@
     <t>https://zh.wikipedia.org/wiki/Pascal_(%E7%A8%8B%E5%BC%8F%E8%AA%9E%E8%A8%80)</t>
   </si>
   <si>
-    <t>Pascal (程式語言)</t>
+    <t>Pascal (程式语言)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Delphi</t>
@@ -1817,7 +1796,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%BD%E6%95%B8%E7%A8%8B%E5%BC%8F%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>函數程式語言</t>
+    <t>函数程式语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/LISP</t>
@@ -2159,7 +2138,7 @@
     <t>https://zh.wikipedia.org/wiki/Cg%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>Cg語言</t>
+    <t>Cg语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/GLSL</t>
@@ -2411,7 +2390,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E6%85%8BHTML</t>
   </si>
   <si>
-    <t>動態HTML</t>
+    <t>动态HTML</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%82%E5%8F%A0%E6%A0%B7%E5%BC%8F%E8%A1%A8</t>
@@ -2519,7 +2498,7 @@
     <t>https://zh.wikipedia.org/wiki/URL%E9%87%8D%E5%AF%AB</t>
   </si>
   <si>
-    <t>URL重寫</t>
+    <t>URL重写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E4%BB%B6%E7%B1%BB%E5%9E%8B%E6%8F%8F%E8%BF%B0</t>
@@ -2549,7 +2528,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>自由軟體</t>
+    <t>自由软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E6%BA%90%E4%BB%A3%E7%A0%81%E8%BD%AF%E4%BB%B6</t>
@@ -2567,7 +2546,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E5%8E%9F%E5%A7%8B%E7%A2%BC%E4%BD%9C%E6%A5%AD%E7%B3%BB%E7%B5%B1%E7%9A%84%E6%AF%94%E8%BC%83</t>
   </si>
   <si>
-    <t>開放原始碼作業系統的比較</t>
+    <t>开放原始码作业系统的比较</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BSD</t>
@@ -2633,7 +2612,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E7%88%BE%E5%AF%A6%E9%A9%97%E5%AE%A4%E4%B9%9D%E8%99%9F%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>貝爾實驗室九號計劃</t>
+    <t>贝尔实验室九号计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ReactOS</t>
@@ -2669,7 +2648,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E5%8E%9F%E5%A7%8B%E7%A2%BC%E8%BB%9F%E9%AB%94%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>開放原始碼軟體歷史</t>
+    <t>开放原始码软体历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Mozilla</t>
@@ -2687,13 +2666,13 @@
     <t>https://zh.wikipedia.org/wiki/Mozilla_Firefox%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>Mozilla Firefox歷史</t>
+    <t>Mozilla Firefox历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Blender%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>Blender基金會</t>
+    <t>Blender基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Eclipse%E5%9F%BA%E9%87%91%E4%BC%9A</t>
@@ -2711,7 +2690,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BB%9F%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>自由軟體基金會</t>
+    <t>自由软体基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/GNOME%E5%9F%BA%E9%87%91%E4%BC%9A</t>
@@ -2735,13 +2714,13 @@
     <t>https://zh.wikipedia.org/wiki/Linux%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>Linux基金會</t>
+    <t>Linux基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Mozilla%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>Mozilla基金會</t>
+    <t>Mozilla基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%BA%90%E5%9C%B0%E7%90%86%E7%A9%BA%E9%97%B4%E5%9F%BA%E9%87%91%E4%BC%9A</t>
@@ -2765,7 +2744,7 @@
     <t>https://zh.wikipedia.org/wiki/Symbian%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>Symbian基金會</t>
+    <t>Symbian基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/VideoLAN</t>
@@ -2783,7 +2762,7 @@
     <t>https://zh.wikipedia.org/wiki/Xiph.Org%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>Xiph.Org基金會</t>
+    <t>Xiph.Org基金会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/XMPP_Standards_Foundation</t>
@@ -2795,25 +2774,25 @@
     <t>https://zh.wikipedia.org/wiki/X.Org%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>X.Org基金會</t>
+    <t>X.Org基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%AA%94%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>文檔基金會</t>
+    <t>文档基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94%E8%87%AA%E7%94%B1%E6%B3%95%E5%BE%8B%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>軟體自由法律中心</t>
+    <t>软体自由法律中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Apache%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
   </si>
   <si>
-    <t>Apache許可證</t>
+    <t>Apache许可证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Artistic_License</t>
@@ -2831,13 +2810,13 @@
     <t>https://zh.wikipedia.org/wiki/GNU%E9%80%9A%E7%94%A8%E5%85%AC%E5%85%B1%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
   </si>
   <si>
-    <t>GNU通用公共許可證</t>
+    <t>GNU通用公共许可证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/GNU%E8%BC%83%E5%AF%AC%E9%AC%86%E5%85%AC%E5%85%B1%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
   </si>
   <si>
-    <t>GNU較寬鬆公共許可證</t>
+    <t>GNU较宽松公共许可证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Affero%E9%80%9A%E7%94%A8%E5%85%AC%E5%85%B1%E8%AE%B8%E5%8F%AF%E8%AF%81</t>
@@ -2849,19 +2828,19 @@
     <t>https://zh.wikipedia.org/wiki/ISC%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
   </si>
   <si>
-    <t>ISC許可證</t>
+    <t>ISC许可证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MIT%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
   </si>
   <si>
-    <t>MIT許可證</t>
+    <t>MIT许可证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Mozilla%E5%85%AC%E5%85%B1%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
   </si>
   <si>
-    <t>Mozilla公共許可證</t>
+    <t>Mozilla公共许可证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%AB%E6%BA%90%E4%BB%A3%E7%A0%81</t>
@@ -2885,7 +2864,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%8F%8A%E9%96%8B%E6%94%BE%E5%8E%9F%E5%A7%8B%E7%A2%BC%E8%BB%9F%E9%AB%94%E8%A8%B1%E5%8F%AF%E8%AD%89%E6%AF%94%E8%BC%83</t>
   </si>
   <si>
-    <t>自由及開放原始碼軟體許可證比較</t>
+    <t>自由及开放原始码软体许可证比较</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/FUD</t>
@@ -2897,7 +2876,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%93%81%E6%8A%B1%E3%80%81%E6%93%B4%E5%85%85%E5%8A%9F%E8%83%BD%E5%86%8D%E6%B6%88%E6%BB%85</t>
   </si>
   <si>
-    <t>擁抱、擴充功能再消滅</t>
+    <t>拥抱、扩充功能再消灭</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Binary_blob</t>
@@ -2909,7 +2888,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E4%BD%8D%E7%89%88%E6%AC%8A%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>數位版權管理</t>
+    <t>数位版权管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Free_and_open-source_graphics_device_driver</t>
@@ -2939,7 +2918,7 @@
     <t>https://zh.wikipedia.org/wiki/SCO-Linux%E7%88%AD%E8%AD%B0</t>
   </si>
   <si>
-    <t>SCO-Linux爭議</t>
+    <t>SCO-Linux争议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E4%BF%A1%E8%AE%A1%E7%AE%97</t>
@@ -2951,13 +2930,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BB%9F%E9%AB%94%E7%A4%BE%E7%BE%A4</t>
   </si>
   <si>
-    <t>自由軟體社群</t>
+    <t>自由软体社群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Linux%E7%99%BC%E8%A1%8C%E7%89%88</t>
   </si>
   <si>
-    <t>Linux發行版</t>
+    <t>Linux发行版</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8D%E5%88%BB_(%E8%BD%AF%E4%BB%B6%E5%B7%A5%E7%A8%8B)</t>
@@ -2969,7 +2948,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BB%9F%E9%AB%94%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>自由軟體運動</t>
+    <t>自由软体运动</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Microsoft_Open_Specification_Promise</t>
@@ -2993,7 +2972,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -3852,7 +3831,7 @@
         <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -3878,10 +3857,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -3907,10 +3886,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -3936,10 +3915,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>5</v>
@@ -3965,10 +3944,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -3994,10 +3973,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>4</v>
@@ -4023,10 +4002,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -4052,10 +4031,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -4081,10 +4060,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -4110,10 +4089,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>4</v>
@@ -4139,10 +4118,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>3</v>
@@ -4168,10 +4147,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -4197,10 +4176,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -4226,10 +4205,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -4255,10 +4234,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>44</v>
@@ -4284,10 +4263,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>11</v>
@@ -4313,10 +4292,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>3</v>
@@ -4342,10 +4321,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
@@ -4371,10 +4350,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -4400,10 +4379,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>3</v>
@@ -4429,10 +4408,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>7</v>
@@ -4458,10 +4437,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -4487,10 +4466,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>3</v>
@@ -4516,10 +4495,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" t="s">
         <v>59</v>
-      </c>
-      <c r="F40" t="s">
-        <v>60</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -4545,10 +4524,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>4</v>
@@ -4574,10 +4553,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>4</v>
@@ -4603,10 +4582,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>5</v>
@@ -4632,10 +4611,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>5</v>
@@ -4661,10 +4640,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -4690,10 +4669,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -4719,10 +4698,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -4748,10 +4727,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>3</v>
@@ -4777,10 +4756,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>7</v>
@@ -4806,10 +4785,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>8</v>
@@ -4835,10 +4814,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>4</v>
@@ -4864,10 +4843,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -4893,10 +4872,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -4922,10 +4901,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -4951,10 +4930,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>5</v>
@@ -4980,10 +4959,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -5009,10 +4988,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -5038,10 +5017,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -5067,10 +5046,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -5096,10 +5075,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -5125,10 +5104,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -5154,10 +5133,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -5183,10 +5162,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -5212,10 +5191,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -5241,10 +5220,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -5270,10 +5249,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>7</v>
@@ -5299,10 +5278,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -5328,10 +5307,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>3</v>
@@ -5357,10 +5336,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>18</v>
@@ -5386,10 +5365,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -5444,10 +5423,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
         <v>139</v>
-      </c>
-      <c r="F72" t="s">
-        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -5473,10 +5452,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
         <v>141</v>
-      </c>
-      <c r="F73" t="s">
-        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -5502,10 +5481,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
         <v>143</v>
-      </c>
-      <c r="F74" t="s">
-        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -5531,10 +5510,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>5</v>
@@ -5560,10 +5539,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -5589,10 +5568,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>7</v>
@@ -5618,10 +5597,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -5647,10 +5626,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -5676,10 +5655,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -5705,10 +5684,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>5</v>
@@ -5734,10 +5713,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
         <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -5763,10 +5742,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
         <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5792,10 +5771,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
         <v>163</v>
-      </c>
-      <c r="F84" t="s">
-        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>5</v>
@@ -5821,10 +5800,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
         <v>165</v>
-      </c>
-      <c r="F85" t="s">
-        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>9</v>
@@ -5850,10 +5829,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5879,10 +5858,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
         <v>169</v>
-      </c>
-      <c r="F87" t="s">
-        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5908,10 +5887,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
         <v>171</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5937,10 +5916,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
-      </c>
-      <c r="F89" t="s">
-        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5966,10 +5945,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" t="s">
         <v>175</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>28</v>
@@ -5995,10 +5974,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
         <v>177</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -6024,10 +6003,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
         <v>179</v>
-      </c>
-      <c r="F92" t="s">
-        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -6053,10 +6032,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>136</v>
+      </c>
+      <c r="F93" t="s">
         <v>137</v>
-      </c>
-      <c r="F93" t="s">
-        <v>138</v>
       </c>
       <c r="G93" t="n">
         <v>5</v>
@@ -6082,10 +6061,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>180</v>
+      </c>
+      <c r="F94" t="s">
         <v>181</v>
-      </c>
-      <c r="F94" t="s">
-        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -6111,10 +6090,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>66</v>
+      </c>
+      <c r="F95" t="s">
         <v>67</v>
-      </c>
-      <c r="F95" t="s">
-        <v>68</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -6140,10 +6119,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>182</v>
+      </c>
+      <c r="F96" t="s">
         <v>183</v>
-      </c>
-      <c r="F96" t="s">
-        <v>184</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -6169,10 +6148,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>184</v>
+      </c>
+      <c r="F97" t="s">
         <v>185</v>
-      </c>
-      <c r="F97" t="s">
-        <v>186</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -6198,10 +6177,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>186</v>
+      </c>
+      <c r="F98" t="s">
         <v>187</v>
-      </c>
-      <c r="F98" t="s">
-        <v>188</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -6227,10 +6206,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>188</v>
+      </c>
+      <c r="F99" t="s">
         <v>189</v>
-      </c>
-      <c r="F99" t="s">
-        <v>190</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -6256,10 +6235,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>190</v>
+      </c>
+      <c r="F100" t="s">
         <v>191</v>
-      </c>
-      <c r="F100" t="s">
-        <v>192</v>
       </c>
       <c r="G100" t="n">
         <v>3</v>
@@ -6285,10 +6264,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>192</v>
+      </c>
+      <c r="F101" t="s">
         <v>193</v>
-      </c>
-      <c r="F101" t="s">
-        <v>194</v>
       </c>
       <c r="G101" t="n">
         <v>3</v>
@@ -6314,10 +6293,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>194</v>
+      </c>
+      <c r="F102" t="s">
         <v>195</v>
-      </c>
-      <c r="F102" t="s">
-        <v>196</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -6343,10 +6322,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>196</v>
+      </c>
+      <c r="F103" t="s">
         <v>197</v>
-      </c>
-      <c r="F103" t="s">
-        <v>198</v>
       </c>
       <c r="G103" t="n">
         <v>3</v>
@@ -6372,10 +6351,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>198</v>
+      </c>
+      <c r="F104" t="s">
         <v>199</v>
-      </c>
-      <c r="F104" t="s">
-        <v>200</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -6401,10 +6380,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>176</v>
+      </c>
+      <c r="F105" t="s">
         <v>177</v>
-      </c>
-      <c r="F105" t="s">
-        <v>178</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -6430,10 +6409,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>160</v>
+      </c>
+      <c r="F106" t="s">
         <v>161</v>
-      </c>
-      <c r="F106" t="s">
-        <v>162</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -6459,10 +6438,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>200</v>
+      </c>
+      <c r="F107" t="s">
         <v>201</v>
-      </c>
-      <c r="F107" t="s">
-        <v>202</v>
       </c>
       <c r="G107" t="n">
         <v>3</v>
@@ -6488,10 +6467,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>202</v>
+      </c>
+      <c r="F108" t="s">
         <v>203</v>
-      </c>
-      <c r="F108" t="s">
-        <v>204</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -6517,10 +6496,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>204</v>
+      </c>
+      <c r="F109" t="s">
         <v>205</v>
-      </c>
-      <c r="F109" t="s">
-        <v>206</v>
       </c>
       <c r="G109" t="n">
         <v>5</v>
@@ -6546,10 +6525,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>206</v>
+      </c>
+      <c r="F110" t="s">
         <v>207</v>
-      </c>
-      <c r="F110" t="s">
-        <v>208</v>
       </c>
       <c r="G110" t="n">
         <v>3</v>
@@ -6575,10 +6554,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>208</v>
+      </c>
+      <c r="F111" t="s">
         <v>209</v>
-      </c>
-      <c r="F111" t="s">
-        <v>210</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -6604,10 +6583,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>210</v>
+      </c>
+      <c r="F112" t="s">
         <v>211</v>
-      </c>
-      <c r="F112" t="s">
-        <v>212</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6633,10 +6612,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>212</v>
+      </c>
+      <c r="F113" t="s">
         <v>213</v>
-      </c>
-      <c r="F113" t="s">
-        <v>214</v>
       </c>
       <c r="G113" t="n">
         <v>3</v>
@@ -6662,10 +6641,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>214</v>
+      </c>
+      <c r="F114" t="s">
         <v>215</v>
-      </c>
-      <c r="F114" t="s">
-        <v>216</v>
       </c>
       <c r="G114" t="n">
         <v>7</v>
@@ -6691,10 +6670,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>216</v>
+      </c>
+      <c r="F115" t="s">
         <v>217</v>
-      </c>
-      <c r="F115" t="s">
-        <v>218</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6720,10 +6699,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>218</v>
+      </c>
+      <c r="F116" t="s">
         <v>219</v>
-      </c>
-      <c r="F116" t="s">
-        <v>220</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6749,10 +6728,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>220</v>
+      </c>
+      <c r="F117" t="s">
         <v>221</v>
-      </c>
-      <c r="F117" t="s">
-        <v>222</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -6778,10 +6757,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>222</v>
+      </c>
+      <c r="F118" t="s">
         <v>223</v>
-      </c>
-      <c r="F118" t="s">
-        <v>224</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -6807,10 +6786,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>224</v>
+      </c>
+      <c r="F119" t="s">
         <v>225</v>
-      </c>
-      <c r="F119" t="s">
-        <v>226</v>
       </c>
       <c r="G119" t="n">
         <v>8</v>
@@ -6836,10 +6815,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>226</v>
+      </c>
+      <c r="F120" t="s">
         <v>227</v>
-      </c>
-      <c r="F120" t="s">
-        <v>228</v>
       </c>
       <c r="G120" t="n">
         <v>5</v>
@@ -6865,10 +6844,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>228</v>
+      </c>
+      <c r="F121" t="s">
         <v>229</v>
-      </c>
-      <c r="F121" t="s">
-        <v>230</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -6894,10 +6873,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>230</v>
+      </c>
+      <c r="F122" t="s">
         <v>231</v>
-      </c>
-      <c r="F122" t="s">
-        <v>232</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -6923,10 +6902,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>232</v>
+      </c>
+      <c r="F123" t="s">
         <v>233</v>
-      </c>
-      <c r="F123" t="s">
-        <v>234</v>
       </c>
       <c r="G123" t="n">
         <v>5</v>
@@ -6952,10 +6931,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>234</v>
+      </c>
+      <c r="F124" t="s">
         <v>235</v>
-      </c>
-      <c r="F124" t="s">
-        <v>236</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6981,10 +6960,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>236</v>
+      </c>
+      <c r="F125" t="s">
         <v>237</v>
-      </c>
-      <c r="F125" t="s">
-        <v>238</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -7010,10 +6989,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>238</v>
+      </c>
+      <c r="F126" t="s">
         <v>239</v>
-      </c>
-      <c r="F126" t="s">
-        <v>240</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -7039,10 +7018,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>240</v>
+      </c>
+      <c r="F127" t="s">
         <v>241</v>
-      </c>
-      <c r="F127" t="s">
-        <v>242</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -7068,10 +7047,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>242</v>
+      </c>
+      <c r="F128" t="s">
         <v>243</v>
-      </c>
-      <c r="F128" t="s">
-        <v>244</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -7097,10 +7076,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>244</v>
+      </c>
+      <c r="F129" t="s">
         <v>245</v>
-      </c>
-      <c r="F129" t="s">
-        <v>246</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -7126,10 +7105,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>246</v>
+      </c>
+      <c r="F130" t="s">
         <v>247</v>
-      </c>
-      <c r="F130" t="s">
-        <v>248</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -7155,10 +7134,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>248</v>
+      </c>
+      <c r="F131" t="s">
         <v>249</v>
-      </c>
-      <c r="F131" t="s">
-        <v>250</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -7184,10 +7163,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>250</v>
+      </c>
+      <c r="F132" t="s">
         <v>251</v>
-      </c>
-      <c r="F132" t="s">
-        <v>252</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -7213,10 +7192,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>252</v>
+      </c>
+      <c r="F133" t="s">
         <v>253</v>
-      </c>
-      <c r="F133" t="s">
-        <v>254</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -7242,10 +7221,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>254</v>
+      </c>
+      <c r="F134" t="s">
         <v>255</v>
-      </c>
-      <c r="F134" t="s">
-        <v>256</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -7271,10 +7250,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>256</v>
+      </c>
+      <c r="F135" t="s">
         <v>257</v>
-      </c>
-      <c r="F135" t="s">
-        <v>258</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -7300,10 +7279,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>258</v>
+      </c>
+      <c r="F136" t="s">
         <v>259</v>
-      </c>
-      <c r="F136" t="s">
-        <v>260</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -7329,10 +7308,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>260</v>
+      </c>
+      <c r="F137" t="s">
         <v>261</v>
-      </c>
-      <c r="F137" t="s">
-        <v>262</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -7358,10 +7337,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>262</v>
+      </c>
+      <c r="F138" t="s">
         <v>263</v>
-      </c>
-      <c r="F138" t="s">
-        <v>264</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -7387,10 +7366,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>264</v>
+      </c>
+      <c r="F139" t="s">
         <v>265</v>
-      </c>
-      <c r="F139" t="s">
-        <v>266</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7416,10 +7395,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>266</v>
+      </c>
+      <c r="F140" t="s">
         <v>267</v>
-      </c>
-      <c r="F140" t="s">
-        <v>268</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -7445,10 +7424,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>268</v>
+      </c>
+      <c r="F141" t="s">
         <v>269</v>
-      </c>
-      <c r="F141" t="s">
-        <v>270</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -7474,10 +7453,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>270</v>
+      </c>
+      <c r="F142" t="s">
         <v>271</v>
-      </c>
-      <c r="F142" t="s">
-        <v>272</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -7503,10 +7482,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>272</v>
+      </c>
+      <c r="F143" t="s">
         <v>273</v>
-      </c>
-      <c r="F143" t="s">
-        <v>274</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7532,10 +7511,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>274</v>
+      </c>
+      <c r="F144" t="s">
         <v>275</v>
-      </c>
-      <c r="F144" t="s">
-        <v>276</v>
       </c>
       <c r="G144" t="n">
         <v>4</v>
@@ -7561,10 +7540,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>276</v>
+      </c>
+      <c r="F145" t="s">
         <v>277</v>
-      </c>
-      <c r="F145" t="s">
-        <v>278</v>
       </c>
       <c r="G145" t="n">
         <v>4</v>
@@ -7590,10 +7569,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>276</v>
+      </c>
+      <c r="F146" t="s">
         <v>277</v>
-      </c>
-      <c r="F146" t="s">
-        <v>278</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7619,10 +7598,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>214</v>
+      </c>
+      <c r="F147" t="s">
         <v>215</v>
-      </c>
-      <c r="F147" t="s">
-        <v>216</v>
       </c>
       <c r="G147" t="n">
         <v>9</v>
@@ -7648,10 +7627,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>214</v>
+      </c>
+      <c r="F148" t="s">
         <v>215</v>
-      </c>
-      <c r="F148" t="s">
-        <v>216</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7677,10 +7656,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>278</v>
+      </c>
+      <c r="F149" t="s">
         <v>279</v>
-      </c>
-      <c r="F149" t="s">
-        <v>280</v>
       </c>
       <c r="G149" t="n">
         <v>3</v>
@@ -7706,10 +7685,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>278</v>
+      </c>
+      <c r="F150" t="s">
         <v>279</v>
-      </c>
-      <c r="F150" t="s">
-        <v>280</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7735,10 +7714,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>280</v>
+      </c>
+      <c r="F151" t="s">
         <v>281</v>
-      </c>
-      <c r="F151" t="s">
-        <v>282</v>
       </c>
       <c r="G151" t="n">
         <v>5</v>
@@ -7764,10 +7743,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>282</v>
+      </c>
+      <c r="F152" t="s">
         <v>283</v>
-      </c>
-      <c r="F152" t="s">
-        <v>284</v>
       </c>
       <c r="G152" t="n">
         <v>5</v>
@@ -7793,10 +7772,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>284</v>
+      </c>
+      <c r="F153" t="s">
         <v>285</v>
-      </c>
-      <c r="F153" t="s">
-        <v>286</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7822,10 +7801,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>286</v>
+      </c>
+      <c r="F154" t="s">
         <v>287</v>
-      </c>
-      <c r="F154" t="s">
-        <v>288</v>
       </c>
       <c r="G154" t="n">
         <v>10</v>
@@ -7851,10 +7830,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>288</v>
+      </c>
+      <c r="F155" t="s">
         <v>289</v>
-      </c>
-      <c r="F155" t="s">
-        <v>290</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7880,10 +7859,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>290</v>
+      </c>
+      <c r="F156" t="s">
         <v>291</v>
-      </c>
-      <c r="F156" t="s">
-        <v>292</v>
       </c>
       <c r="G156" t="n">
         <v>15</v>
@@ -7909,10 +7888,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F157" t="s">
-        <v>294</v>
+        <v>183</v>
       </c>
       <c r="G157" t="n">
         <v>5</v>
@@ -7938,10 +7917,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>276</v>
+      </c>
+      <c r="F158" t="s">
         <v>277</v>
-      </c>
-      <c r="F158" t="s">
-        <v>278</v>
       </c>
       <c r="G158" t="n">
         <v>4</v>
@@ -7967,10 +7946,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>278</v>
+      </c>
+      <c r="F159" t="s">
         <v>279</v>
-      </c>
-      <c r="F159" t="s">
-        <v>280</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -7996,10 +7975,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F160" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -8025,10 +8004,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F161" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -8054,10 +8033,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F162" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -8083,10 +8062,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F163" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -8112,10 +8091,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F164" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G164" t="n">
         <v>3</v>
@@ -8141,10 +8120,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F165" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="G165" t="n">
         <v>5</v>
@@ -8170,10 +8149,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F166" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -8199,10 +8178,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F167" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G167" t="n">
         <v>7</v>
@@ -8228,10 +8207,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F168" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -8257,10 +8236,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F169" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8286,10 +8265,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F170" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8315,10 +8294,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>136</v>
+      </c>
+      <c r="F171" t="s">
         <v>137</v>
-      </c>
-      <c r="F171" t="s">
-        <v>138</v>
       </c>
       <c r="G171" t="n">
         <v>7</v>
@@ -8344,10 +8323,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F172" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G172" t="n">
         <v>21</v>
@@ -8373,10 +8352,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F173" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G173" t="n">
         <v>3</v>
@@ -8402,10 +8381,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F174" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G174" t="n">
         <v>4</v>
@@ -8431,10 +8410,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F175" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -8460,10 +8439,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F176" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G176" t="n">
         <v>6</v>
@@ -8489,10 +8468,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F177" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G177" t="n">
         <v>3</v>
@@ -8518,10 +8497,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F178" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8547,10 +8526,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F179" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -8576,10 +8555,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F180" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G180" t="n">
         <v>4</v>
@@ -8605,10 +8584,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F181" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8634,10 +8613,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>164</v>
+      </c>
+      <c r="F182" t="s">
         <v>165</v>
-      </c>
-      <c r="F182" t="s">
-        <v>166</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8663,10 +8642,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F183" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G183" t="n">
         <v>9</v>
@@ -8692,10 +8671,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F184" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G184" t="n">
         <v>3</v>
@@ -8721,10 +8700,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F185" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G185" t="n">
         <v>3</v>
@@ -8750,10 +8729,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F186" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G186" t="n">
         <v>10</v>
@@ -8779,10 +8758,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F187" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G187" t="n">
         <v>4</v>
@@ -8808,10 +8787,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F188" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G188" t="n">
         <v>11</v>
@@ -8837,10 +8816,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F189" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -8866,10 +8845,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F190" t="s">
-        <v>352</v>
+        <v>131</v>
       </c>
       <c r="G190" t="n">
         <v>3</v>
@@ -8895,10 +8874,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F191" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G191" t="n">
         <v>5</v>
@@ -8924,10 +8903,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F192" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8953,10 +8932,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F193" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -8982,10 +8961,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F194" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G194" t="n">
         <v>5</v>
@@ -9011,10 +8990,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F195" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -9040,10 +9019,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F196" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -9069,10 +9048,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F197" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -9098,10 +9077,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F198" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G198" t="n">
         <v>5</v>
@@ -9127,10 +9106,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F199" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G199" t="n">
         <v>17</v>
@@ -9156,10 +9135,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F200" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9185,10 +9164,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F201" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G201" t="n">
         <v>2</v>
@@ -9214,10 +9193,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>266</v>
+      </c>
+      <c r="F202" t="s">
         <v>267</v>
-      </c>
-      <c r="F202" t="s">
-        <v>268</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9243,10 +9222,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F203" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -9272,10 +9251,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F204" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -9301,10 +9280,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F205" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -9330,10 +9309,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F206" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -9359,10 +9338,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F207" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -9388,10 +9367,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F208" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9417,10 +9396,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F209" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9446,10 +9425,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F210" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -9475,10 +9454,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>72</v>
+      </c>
+      <c r="F211" t="s">
         <v>73</v>
-      </c>
-      <c r="F211" t="s">
-        <v>74</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9504,10 +9483,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F212" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9562,10 +9541,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>176</v>
+      </c>
+      <c r="F214" t="s">
         <v>177</v>
-      </c>
-      <c r="F214" t="s">
-        <v>178</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -9591,10 +9570,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F215" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9620,10 +9599,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F216" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9649,10 +9628,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F217" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9678,10 +9657,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F218" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9707,10 +9686,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F219" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9736,10 +9715,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F220" t="s">
-        <v>402</v>
+        <v>300</v>
       </c>
       <c r="G220" t="n">
         <v>7</v>
@@ -9765,10 +9744,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F221" t="s">
-        <v>404</v>
+        <v>289</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -9794,10 +9773,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F222" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9823,10 +9802,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F223" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9852,10 +9831,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F224" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9881,10 +9860,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F225" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9910,10 +9889,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F226" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G226" t="n">
         <v>3</v>
@@ -9939,10 +9918,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F227" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9968,10 +9947,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F228" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9997,10 +9976,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F229" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -10026,10 +10005,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F230" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G230" t="n">
         <v>2</v>
@@ -10055,10 +10034,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F231" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -10084,10 +10063,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F232" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -10113,10 +10092,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F233" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -10142,10 +10121,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F234" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -10171,10 +10150,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F235" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10200,10 +10179,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F236" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10229,10 +10208,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F237" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -10258,10 +10237,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F238" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -10287,10 +10266,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F239" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10316,10 +10295,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F240" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10345,10 +10324,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F241" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10374,10 +10353,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F242" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10403,10 +10382,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F243" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G243" t="n">
         <v>4</v>
@@ -10432,10 +10411,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F244" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10461,10 +10440,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F245" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10490,10 +10469,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F246" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10519,10 +10498,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F247" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
@@ -10548,10 +10527,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F248" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G248" t="n">
         <v>2</v>
@@ -10577,10 +10556,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F249" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10606,10 +10585,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F250" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10635,10 +10614,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F251" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -10664,10 +10643,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F252" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10693,10 +10672,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F253" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="G253" t="n">
         <v>2</v>
@@ -10722,10 +10701,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F254" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G254" t="n">
         <v>10</v>
@@ -10751,10 +10730,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F255" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="G255" t="n">
         <v>3</v>
@@ -10780,10 +10759,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F256" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="G256" t="n">
         <v>2</v>
@@ -10809,10 +10788,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F257" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10838,10 +10817,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F258" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10867,10 +10846,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F259" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10896,10 +10875,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F260" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10925,10 +10904,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F261" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10954,10 +10933,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F262" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10983,10 +10962,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F263" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -11012,10 +10991,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F264" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -11041,10 +11020,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F265" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -11070,10 +11049,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="F266" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -11099,10 +11078,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F267" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11128,10 +11107,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F268" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="G268" t="n">
         <v>5</v>
@@ -11157,10 +11136,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F269" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11186,10 +11165,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F270" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11215,10 +11194,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="F271" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -11244,10 +11223,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="F272" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11273,10 +11252,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F273" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11302,10 +11281,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F274" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11331,10 +11310,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F275" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="G275" t="n">
         <v>7</v>
@@ -11360,10 +11339,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="F276" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11389,10 +11368,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F277" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="G277" t="n">
         <v>2</v>
@@ -11418,10 +11397,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="F278" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="G278" t="n">
         <v>2</v>
@@ -11447,10 +11426,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="F279" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11476,10 +11455,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="F280" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11505,10 +11484,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="F281" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11534,10 +11513,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F282" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="G282" t="n">
         <v>2</v>
@@ -11563,10 +11542,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F283" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="G283" t="n">
         <v>2</v>
@@ -11592,10 +11571,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="F284" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="G284" t="n">
         <v>2</v>
@@ -11621,10 +11600,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F285" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G285" t="n">
         <v>2</v>
@@ -11650,10 +11629,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="F286" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11679,10 +11658,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="F287" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G287" t="n">
         <v>3</v>
@@ -11708,10 +11687,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F288" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G288" t="n">
         <v>2</v>
@@ -11737,10 +11716,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="F289" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11766,10 +11745,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F290" t="s">
-        <v>540</v>
+        <v>163</v>
       </c>
       <c r="G290" t="n">
         <v>199</v>
@@ -11795,10 +11774,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F291" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11824,10 +11803,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="F292" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11853,10 +11832,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="F293" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11882,10 +11861,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F294" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11911,10 +11890,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="F295" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="G295" t="n">
         <v>3</v>
@@ -11940,10 +11919,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="F296" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="G296" t="n">
         <v>13</v>
@@ -11969,10 +11948,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F297" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11998,10 +11977,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="F298" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -12027,10 +12006,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="F299" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12056,10 +12035,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="F300" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12085,10 +12064,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="F301" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12114,10 +12093,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="F302" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12143,10 +12122,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="F303" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12172,10 +12151,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F304" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12201,10 +12180,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="F305" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12230,10 +12209,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="F306" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12259,10 +12238,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F307" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12288,10 +12267,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="F308" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="G308" t="n">
         <v>2</v>
@@ -12317,10 +12296,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="F309" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12346,10 +12325,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="F310" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="G310" t="n">
         <v>3</v>
@@ -12375,10 +12354,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="F311" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="G311" t="n">
         <v>2</v>
@@ -12404,10 +12383,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="F312" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12433,10 +12412,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="F313" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G313" t="n">
         <v>11</v>
@@ -12462,10 +12441,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="F314" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="G314" t="n">
         <v>4</v>
@@ -12491,10 +12470,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F315" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12520,10 +12499,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="F316" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G316" t="n">
         <v>2</v>
@@ -12549,10 +12528,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="F317" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12578,10 +12557,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="F318" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12607,10 +12586,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="F319" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12636,10 +12615,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="F320" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12665,10 +12644,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="F321" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12694,10 +12673,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="F322" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="G322" t="n">
         <v>3</v>
@@ -12723,10 +12702,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="F323" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12752,10 +12731,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="F324" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12781,10 +12760,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="F325" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="G325" t="n">
         <v>20</v>
@@ -12810,10 +12789,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="F326" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12839,10 +12818,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="F327" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12868,10 +12847,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="F328" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12897,10 +12876,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="F329" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12926,10 +12905,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="F330" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12955,10 +12934,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="F331" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12984,10 +12963,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="F332" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -13013,10 +12992,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="F333" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13042,10 +13021,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="F334" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13071,10 +13050,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="F335" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13100,10 +13079,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="F336" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13129,10 +13108,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="F337" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13158,10 +13137,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="F338" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="G338" t="n">
         <v>8</v>
@@ -13187,10 +13166,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="F339" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13216,10 +13195,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="F340" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13245,10 +13224,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="F341" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13274,10 +13253,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="F342" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13303,10 +13282,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="F343" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="G343" t="n">
         <v>2</v>
@@ -13332,10 +13311,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="F344" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="G344" t="n">
         <v>85</v>
@@ -13361,10 +13340,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
+        <v>58</v>
+      </c>
+      <c r="F345" t="s">
         <v>59</v>
-      </c>
-      <c r="F345" t="s">
-        <v>60</v>
       </c>
       <c r="G345" t="n">
         <v>3</v>
@@ -13390,10 +13369,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F346" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13448,10 +13427,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="F348" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="G348" t="n">
         <v>71</v>
@@ -13477,10 +13456,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="F349" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="G349" t="n">
         <v>2</v>
@@ -13506,10 +13485,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="F350" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="G350" t="n">
         <v>5</v>
@@ -13535,10 +13514,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="F351" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="G351" t="n">
         <v>3</v>
@@ -13564,10 +13543,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="F352" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13593,10 +13572,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="F353" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13622,10 +13601,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="F354" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13651,10 +13630,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="F355" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="G355" t="n">
         <v>2</v>
@@ -13680,10 +13659,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="F356" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13709,10 +13688,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="F357" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13738,10 +13717,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="F358" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13767,10 +13746,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="F359" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="G359" t="n">
         <v>2</v>
@@ -13796,10 +13775,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="F360" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13825,10 +13804,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="F361" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13854,10 +13833,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="F362" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="G362" t="n">
         <v>23</v>
@@ -13883,10 +13862,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="F363" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13912,10 +13891,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="F364" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="G364" t="n">
         <v>5</v>
@@ -13941,10 +13920,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="F365" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="G365" t="n">
         <v>3</v>
@@ -13970,10 +13949,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="F366" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13999,10 +13978,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="F367" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="G367" t="n">
         <v>2</v>
@@ -14028,10 +14007,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="F368" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14057,10 +14036,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="F369" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14086,10 +14065,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="F370" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14115,10 +14094,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="F371" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14144,10 +14123,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="F372" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14173,10 +14152,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="F373" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14202,10 +14181,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="F374" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14231,10 +14210,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="F375" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14260,10 +14239,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="F376" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="G376" t="n">
         <v>2</v>
@@ -14289,10 +14268,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="F377" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14318,10 +14297,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="F378" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14347,10 +14326,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="F379" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14376,10 +14355,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="F380" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14405,10 +14384,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="F381" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14434,10 +14413,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="F382" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14463,10 +14442,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="F383" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14492,10 +14471,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="F384" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="G384" t="n">
         <v>2</v>
@@ -14521,10 +14500,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="F385" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14550,10 +14529,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="F386" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14579,10 +14558,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="F387" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="G387" t="n">
         <v>6</v>
@@ -14608,10 +14587,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="F388" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14637,10 +14616,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="F389" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14666,10 +14645,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="F390" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="G390" t="n">
         <v>2</v>
@@ -14695,10 +14674,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="F391" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14724,10 +14703,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="F392" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="G392" t="n">
         <v>2</v>
@@ -14753,10 +14732,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="F393" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14782,10 +14761,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="F394" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="G394" t="n">
         <v>2</v>
@@ -14811,10 +14790,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="F395" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="G395" t="n">
         <v>6</v>
@@ -14840,10 +14819,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="F396" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14869,10 +14848,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="F397" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="G397" t="n">
         <v>2</v>
@@ -14898,10 +14877,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="F398" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14927,10 +14906,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="F399" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="G399" t="n">
         <v>2</v>
@@ -14956,10 +14935,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="F400" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14985,10 +14964,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="F401" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15014,10 +14993,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="F402" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15043,10 +15022,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="F403" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="G403" t="n">
         <v>6</v>
@@ -15072,10 +15051,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="F404" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15101,10 +15080,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="F405" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15130,10 +15109,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="F406" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15159,10 +15138,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="F407" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15188,10 +15167,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="F408" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15217,10 +15196,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F409" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="G409" t="n">
         <v>405</v>
@@ -15246,10 +15225,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="F410" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15275,10 +15254,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="F411" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15304,10 +15283,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="F412" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15333,10 +15312,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="F413" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="G413" t="n">
         <v>2</v>
@@ -15362,10 +15341,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="F414" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15391,10 +15370,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="F415" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15420,10 +15399,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="F416" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15449,10 +15428,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="F417" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15478,10 +15457,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="F418" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15507,10 +15486,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="F419" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15536,10 +15515,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="F420" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15565,10 +15544,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="F421" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15594,10 +15573,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="F422" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15623,10 +15602,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="F423" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15652,10 +15631,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="F424" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="G424" t="n">
         <v>2</v>
@@ -15681,10 +15660,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="F425" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="G425" t="n">
         <v>2</v>
@@ -15710,10 +15689,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="F426" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15739,10 +15718,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="F427" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15768,10 +15747,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="F428" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15797,10 +15776,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="F429" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15826,10 +15805,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="F430" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15855,10 +15834,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="F431" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15884,10 +15863,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="F432" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15913,10 +15892,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="F433" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15942,10 +15921,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="F434" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15971,10 +15950,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="F435" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16000,10 +15979,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="F436" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16029,10 +16008,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="F437" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="G437" t="n">
         <v>2</v>
@@ -16058,10 +16037,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="F438" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16087,10 +16066,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="F439" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16116,10 +16095,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="F440" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16145,10 +16124,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="F441" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16174,10 +16153,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="F442" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16203,10 +16182,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="F443" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="G443" t="n">
         <v>2</v>
@@ -16232,10 +16211,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="F444" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16261,10 +16240,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="F445" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="G445" t="n">
         <v>5</v>
@@ -16290,10 +16269,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="F446" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16319,10 +16298,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="F447" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G447" t="n">
         <v>3</v>
@@ -16348,10 +16327,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="F448" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16377,10 +16356,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="F449" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16406,10 +16385,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="F450" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="G450" t="n">
         <v>2</v>
@@ -16435,10 +16414,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="F451" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16464,10 +16443,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="F452" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16493,10 +16472,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="F453" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="G453" t="n">
         <v>10</v>
@@ -16522,10 +16501,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="F454" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="G454" t="n">
         <v>2</v>
@@ -16551,10 +16530,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="F455" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16580,10 +16559,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="F456" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="G456" t="n">
         <v>6</v>
@@ -16609,10 +16588,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="F457" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="G457" t="n">
         <v>4</v>
@@ -16638,10 +16617,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="F458" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16667,10 +16646,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="F459" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="G459" t="n">
         <v>2</v>
@@ -16696,10 +16675,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="F460" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16725,10 +16704,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="F461" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16754,10 +16733,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="F462" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16783,10 +16762,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="F463" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16812,10 +16791,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="F464" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -16841,10 +16820,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="F465" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16870,10 +16849,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="F466" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="G466" t="n">
         <v>4</v>
@@ -16899,10 +16878,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="F467" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="G467" t="n">
         <v>3</v>
@@ -16928,10 +16907,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="F468" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="G468" t="n">
         <v>3</v>
@@ -16957,10 +16936,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="F469" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -16986,10 +16965,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="F470" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17015,10 +16994,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
+        <v>156</v>
+      </c>
+      <c r="F471" t="s">
         <v>157</v>
-      </c>
-      <c r="F471" t="s">
-        <v>158</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17044,10 +17023,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
+        <v>242</v>
+      </c>
+      <c r="F472" t="s">
         <v>243</v>
-      </c>
-      <c r="F472" t="s">
-        <v>244</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17073,10 +17052,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="F473" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17102,10 +17081,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="F474" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17131,10 +17110,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="F475" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17160,10 +17139,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="F476" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17189,10 +17168,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="F477" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17218,10 +17197,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="F478" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17247,10 +17226,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="F479" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17276,10 +17255,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="F480" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17305,10 +17284,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="F481" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17334,10 +17313,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="F482" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17363,10 +17342,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="F483" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17392,10 +17371,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="F484" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17421,10 +17400,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="F485" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17450,10 +17429,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="F486" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17479,10 +17458,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="F487" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17508,10 +17487,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="F488" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="G488" t="n">
         <v>4</v>
@@ -17537,10 +17516,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F489" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17566,10 +17545,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="F490" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17595,10 +17574,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="F491" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17624,10 +17603,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="F492" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -17653,10 +17632,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="F493" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17682,10 +17661,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="F494" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="G494" t="n">
         <v>5</v>
@@ -17711,10 +17690,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="F495" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -17740,10 +17719,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="F496" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -17769,10 +17748,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="F497" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -17798,10 +17777,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="F498" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -17827,10 +17806,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="F499" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -17856,10 +17835,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="F500" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -17885,10 +17864,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="F501" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -17914,10 +17893,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="F502" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -17943,10 +17922,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="F503" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -17972,10 +17951,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="F504" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18001,10 +17980,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="F505" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18030,10 +18009,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="F506" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18059,10 +18038,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="F507" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18088,10 +18067,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="F508" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18117,10 +18096,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="F509" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18146,10 +18125,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="F510" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18175,10 +18154,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="F511" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18204,10 +18183,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="F512" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18233,10 +18212,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="F513" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18262,10 +18241,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="F514" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18291,10 +18270,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="F515" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18320,10 +18299,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="F516" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18349,10 +18328,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
+        <v>40</v>
+      </c>
+      <c r="F517" t="s">
         <v>41</v>
-      </c>
-      <c r="F517" t="s">
-        <v>42</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18378,10 +18357,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="F518" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18407,10 +18386,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="F519" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -18436,10 +18415,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="F520" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -18465,10 +18444,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="F521" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -18494,10 +18473,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="F522" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -18523,10 +18502,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="F523" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -18552,10 +18531,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="F524" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -18581,10 +18560,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="F525" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="G525" t="n">
         <v>3</v>
@@ -18610,10 +18589,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
       <c r="F526" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -18639,10 +18618,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="F527" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -18668,10 +18647,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
       <c r="F528" t="s">
-        <v>998</v>
+        <v>991</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -18697,10 +18676,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>999</v>
+        <v>992</v>
       </c>
       <c r="F529" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
